--- a/biology/Zoologie/Cuspidariidae/Cuspidariidae.xlsx
+++ b/biology/Zoologie/Cuspidariidae/Cuspidariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cuspidariidae sont une famille de mollusques bivalves appartenant à l'ordre des Pholadomyoida.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (11 novembre 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (11 novembre 2018) :
 genre Austroneaera
 genre Bathyneaera
 genre Cardiomya
@@ -560,7 +574,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dall, 1886 :  Reports on the results of dredging, under the supervision of Alexander Agassiz, in the Gulf of Mexico (1877-78) and in the Carribean Sea (1879-80), by the U.S. Coast Survey steamer "Blake", Lieut.-Commander C.D. Sigsbee, U.S.N. and Commander J.R. Bartlett, U.S.N. commanding. XXIX. Report on the Mollusca. Part 1, Brachiopoda and Pelecypoda. Bulletin of the Museum of Comparative Zoölogy at Harvard College, vol. 12, n. 6, pp. 171-318 (texte intégral).</t>
         </is>
